--- a/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -52,14 +52,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -170,7 +170,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -453,7 +453,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -523,7 +523,6 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" s="3" customFormat="1"/>
     <x:row r="2" spans="1:4" s="4" customFormat="1"/>
-    <x:row r="3" spans="1:4"/>
     <x:row r="4" spans="1:4" s="5" customFormat="1"/>
     <x:row r="5" spans="1:4" s="2" customFormat="1"/>
     <x:row r="8" spans="1:4">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -71,31 +71,26 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFADD8E6"/>
-        <x:bgColor rgb="FFADD8E6"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFA2A2D0"/>
-        <x:bgColor rgb="FFA2A2D0"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFFA07A"/>
-        <x:bgColor rgb="FFFFA07A"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFFA8072"/>
-        <x:bgColor rgb="FFFA8072"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF0000FF"/>
-        <x:bgColor rgb="FF0000FF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -70,17 +70,17 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFA07A"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
         <x:fgColor rgb="FFADD8E6"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFA2A2D0"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFA07A"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -460,29 +460,29 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="3" spans="1:7">
-      <x:c r="E3" s="3" t="s">
+      <x:c r="E3" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="E4" s="3" t="s">
+      <x:c r="E4" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="C5" s="1" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="2" t="s">
+      <x:c r="F5" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
+      <x:c r="G5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -516,14 +516,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4" s="3" customFormat="1"/>
+    <x:row r="1" spans="1:4" s="1" customFormat="1"/>
     <x:row r="2" spans="1:4" s="4" customFormat="1"/>
     <x:row r="4" spans="1:4" s="5" customFormat="1"/>
-    <x:row r="5" spans="1:4" s="2" customFormat="1"/>
+    <x:row r="5" spans="1:4" s="3" customFormat="1"/>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="C8" s="3" t="s"/>
-      <x:c r="D8" s="3" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
+      <x:c r="C8" s="1" t="s"/>
+      <x:c r="D8" s="1" t="s"/>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="B9" s="4" t="s"/>
@@ -536,9 +536,9 @@
       <x:c r="D11" s="5" t="s"/>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="2" t="s"/>
-      <x:c r="C12" s="2" t="s"/>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="B12" s="3" t="s"/>
+      <x:c r="C12" s="3" t="s"/>
+      <x:c r="D12" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -560,30 +560,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:12">
-      <x:c r="H2" s="3" t="s"/>
+      <x:c r="H2" s="1" t="s"/>
       <x:c r="I2" s="4" t="s"/>
       <x:c r="K2" s="5" t="s"/>
-      <x:c r="L2" s="2" t="s"/>
+      <x:c r="L2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:12">
-      <x:c r="H3" s="3" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
       <x:c r="I3" s="4" t="s"/>
       <x:c r="K3" s="5" t="s"/>
-      <x:c r="L3" s="2" t="s"/>
+      <x:c r="L3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:12">
-      <x:c r="H4" s="3" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
       <x:c r="I4" s="4" t="s"/>
       <x:c r="K4" s="5" t="s"/>
-      <x:c r="L4" s="2" t="s"/>
+      <x:c r="L4" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
